--- a/src/test/resources/feed4junit_cases/testcases.xlsx
+++ b/src/test/resources/feed4junit_cases/testcases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
   <si>
     <t>caseDesc</t>
   </si>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AddOcsAuthenticIP_function_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>hangzhou_for_authIP_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -52,12 +48,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AddOcsAuthenticIP_function_02</t>
-  </si>
-  <si>
-    <t>AddOcsAuthenticIP_function_03</t>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -66,18 +56,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AddOcsAuthenticIP_function_04</t>
-  </si>
-  <si>
     <t>hangzhou_for_authIP_2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddOcsAuthenticIP_function_05</t>
   </si>
   <si>
     <t>caseName</t>
@@ -539,16 +523,28 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AddOcsAuthenticIP_function_06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yes</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_02</t>
+  </si>
+  <si>
+    <t>case_03</t>
+  </si>
+  <si>
+    <t>case_04</t>
+  </si>
+  <si>
+    <t>case_05</t>
   </si>
 </sst>
 </file>
@@ -671,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -721,6 +717,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,15 +1031,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.875" style="2" customWidth="1"/>
@@ -1040,142 +1048,124 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +1700,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1719,221 +1709,221 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="G3" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="G9" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2148,10 +2138,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2159,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2167,31 +2157,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
